--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0753475</v>
+        <v>0.2938745</v>
       </c>
       <c r="N2">
-        <v>0.150695</v>
+        <v>0.587749</v>
       </c>
       <c r="O2">
-        <v>0.03832198229806438</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P2">
-        <v>0.02965805314694783</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q2">
-        <v>2.2413817481975</v>
+        <v>6.125142155393</v>
       </c>
       <c r="R2">
-        <v>8.965526992789998</v>
+        <v>24.500568621572</v>
       </c>
       <c r="S2">
-        <v>0.007270681283446867</v>
+        <v>0.01047300487874282</v>
       </c>
       <c r="T2">
-        <v>0.004023119705336382</v>
+        <v>0.006722925849728827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.5075730000000001</v>
       </c>
       <c r="O3">
-        <v>0.08605109004269301</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P3">
-        <v>0.09989466810415577</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q3">
-        <v>5.032968835851</v>
+        <v>3.526399624374</v>
       </c>
       <c r="R3">
-        <v>30.197813015106</v>
+        <v>21.158397746244</v>
       </c>
       <c r="S3">
-        <v>0.01632614004482775</v>
+        <v>0.006029574421868442</v>
       </c>
       <c r="T3">
-        <v>0.01355072788212418</v>
+        <v>0.005805838278456298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03499966666666667</v>
+        <v>1.226126</v>
       </c>
       <c r="N4">
-        <v>0.104999</v>
+        <v>2.452252</v>
       </c>
       <c r="O4">
-        <v>0.01780094371330375</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P4">
-        <v>0.02066469307127891</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q4">
-        <v>1.041144219246333</v>
+        <v>25.555793545964</v>
       </c>
       <c r="R4">
-        <v>6.246865315477999</v>
+        <v>102.223174183856</v>
       </c>
       <c r="S4">
-        <v>0.003377304109097349</v>
+        <v>0.04369628388973329</v>
       </c>
       <c r="T4">
-        <v>0.002803168956771059</v>
+        <v>0.02804991307658408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,113 +729,113 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H5">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I5">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J5">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.742078</v>
+        <v>0.04388</v>
       </c>
       <c r="N5">
-        <v>1.484156</v>
+        <v>0.13164</v>
       </c>
       <c r="O5">
-        <v>0.377423271903952</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P5">
-        <v>0.2920944790892963</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q5">
-        <v>22.074787948358</v>
+        <v>0.91457829032</v>
       </c>
       <c r="R5">
-        <v>88.299151793432</v>
+        <v>5.487469741920001</v>
       </c>
       <c r="S5">
-        <v>0.0716070556482655</v>
+        <v>0.001563781321888205</v>
       </c>
       <c r="T5">
-        <v>0.03962266332256029</v>
+        <v>0.001505754937666083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.747261</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H6">
-        <v>59.494522</v>
+        <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1897261270801773</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J6">
-        <v>0.1356501617082849</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3445373333333333</v>
+        <v>0.2938745</v>
       </c>
       <c r="N6">
-        <v>1.033612</v>
+        <v>0.587749</v>
       </c>
       <c r="O6">
-        <v>0.1752328025352176</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P6">
-        <v>0.2034236015084976</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q6">
-        <v>10.24904197891066</v>
+        <v>6.391834341682833</v>
       </c>
       <c r="R6">
-        <v>61.49425187346399</v>
+        <v>38.351006050097</v>
       </c>
       <c r="S6">
-        <v>0.0332462409624123</v>
+        <v>0.0109290054902024</v>
       </c>
       <c r="T6">
-        <v>0.02759444443990941</v>
+        <v>0.01052346881901718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.747261</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H7">
-        <v>59.494522</v>
+        <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1897261270801773</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J7">
-        <v>0.1356501617082849</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6000156666666667</v>
+        <v>0.169191</v>
       </c>
       <c r="N7">
-        <v>1.800047</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O7">
-        <v>0.3051699095067694</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P7">
-        <v>0.3542645050798235</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q7">
-        <v>17.84882264042233</v>
+        <v>3.679941077241</v>
       </c>
       <c r="R7">
-        <v>107.092935842534</v>
+        <v>33.119469695169</v>
       </c>
       <c r="S7">
-        <v>0.05789870503212752</v>
+        <v>0.006292105534480992</v>
       </c>
       <c r="T7">
-        <v>0.04805603740158359</v>
+        <v>0.009087941687480556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J8">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0753475</v>
+        <v>1.226126</v>
       </c>
       <c r="N8">
-        <v>0.150695</v>
+        <v>2.452252</v>
       </c>
       <c r="O8">
-        <v>0.03832198229806438</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P8">
-        <v>0.02965805314694783</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q8">
-        <v>1.638824525639167</v>
+        <v>26.66850738675934</v>
       </c>
       <c r="R8">
-        <v>9.832947153834999</v>
+        <v>160.011044320556</v>
       </c>
       <c r="S8">
-        <v>0.005316082731110226</v>
+        <v>0.04559884503650335</v>
       </c>
       <c r="T8">
-        <v>0.004412358970971588</v>
+        <v>0.04390683345845339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J9">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.169191</v>
+        <v>0.04388</v>
       </c>
       <c r="N9">
-        <v>0.5075730000000001</v>
+        <v>0.13164</v>
       </c>
       <c r="O9">
-        <v>0.08605109004269301</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P9">
-        <v>0.09989466810415577</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q9">
-        <v>3.679941077241</v>
+        <v>0.9543995512133334</v>
       </c>
       <c r="R9">
-        <v>33.119469695169</v>
+        <v>8.589595960920001</v>
       </c>
       <c r="S9">
-        <v>0.01193713598140974</v>
+        <v>0.001631869253406067</v>
       </c>
       <c r="T9">
-        <v>0.01486176900343716</v>
+        <v>0.002356974550931472</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.75021766666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H10">
-        <v>65.250653</v>
+        <v>114.450985</v>
       </c>
       <c r="I10">
-        <v>0.1387214964445808</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J10">
-        <v>0.1487743969271858</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03499966666666667</v>
+        <v>0.2938745</v>
       </c>
       <c r="N10">
-        <v>0.104999</v>
+        <v>0.587749</v>
       </c>
       <c r="O10">
-        <v>0.01780094371330375</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P10">
-        <v>0.02066469307127891</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q10">
-        <v>0.7612503682607777</v>
+        <v>11.21140866379417</v>
       </c>
       <c r="R10">
-        <v>6.851253314347</v>
+        <v>67.268451982765</v>
       </c>
       <c r="S10">
-        <v>0.002469373550035248</v>
+        <v>0.01916970000934814</v>
       </c>
       <c r="T10">
-        <v>0.003074377249364914</v>
+        <v>0.0184583803621598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.75021766666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H11">
-        <v>65.250653</v>
+        <v>114.450985</v>
       </c>
       <c r="I11">
-        <v>0.1387214964445808</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J11">
-        <v>0.1487743969271858</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.742078</v>
+        <v>0.169191</v>
       </c>
       <c r="N11">
-        <v>1.484156</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O11">
-        <v>0.377423271903952</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P11">
-        <v>0.2920944790892963</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q11">
-        <v>16.14035802564467</v>
+        <v>6.454692201045001</v>
       </c>
       <c r="R11">
-        <v>96.842148153868</v>
+        <v>58.092229809405</v>
       </c>
       <c r="S11">
-        <v>0.05235672107152613</v>
+        <v>0.01103648228846539</v>
       </c>
       <c r="T11">
-        <v>0.04345617997227053</v>
+        <v>0.01594043630114647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.75021766666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H12">
-        <v>65.250653</v>
+        <v>114.450985</v>
       </c>
       <c r="I12">
-        <v>0.1387214964445808</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J12">
-        <v>0.1487743969271858</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3445373333333333</v>
+        <v>1.226126</v>
       </c>
       <c r="N12">
-        <v>1.033612</v>
+        <v>2.452252</v>
       </c>
       <c r="O12">
-        <v>0.1752328025352176</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P12">
-        <v>0.2034236015084976</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q12">
-        <v>7.493761994292889</v>
+        <v>46.77710947803667</v>
       </c>
       <c r="R12">
-        <v>67.44385794863599</v>
+        <v>280.66265686822</v>
       </c>
       <c r="S12">
-        <v>0.02430855659386311</v>
+        <v>0.07998131036773179</v>
       </c>
       <c r="T12">
-        <v>0.03026422363518289</v>
+        <v>0.07701348732174294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.75021766666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H13">
-        <v>65.250653</v>
+        <v>114.450985</v>
       </c>
       <c r="I13">
-        <v>0.1387214964445808</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J13">
-        <v>0.1487743969271858</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6000156666666667</v>
+        <v>0.04388</v>
       </c>
       <c r="N13">
-        <v>1.800047</v>
+        <v>0.13164</v>
       </c>
       <c r="O13">
-        <v>0.3051699095067694</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P13">
-        <v>0.3542645050798235</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q13">
-        <v>13.05047135341011</v>
+        <v>1.674036407266667</v>
       </c>
       <c r="R13">
-        <v>117.454242180691</v>
+        <v>15.0663276654</v>
       </c>
       <c r="S13">
-        <v>0.04233362651663635</v>
+        <v>0.00286233217380275</v>
       </c>
       <c r="T13">
-        <v>0.05270548809595869</v>
+        <v>0.004134181752541844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.00397566666667</v>
+        <v>1.0325075</v>
       </c>
       <c r="H14">
-        <v>93.011927</v>
+        <v>2.065015</v>
       </c>
       <c r="I14">
-        <v>0.1977413728048684</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J14">
-        <v>0.2120713389099788</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0753475</v>
+        <v>0.2938745</v>
       </c>
       <c r="N14">
-        <v>0.150695</v>
+        <v>0.587749</v>
       </c>
       <c r="O14">
-        <v>0.03832198229806438</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P14">
-        <v>0.02965805314694783</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q14">
-        <v>2.336072056544166</v>
+        <v>0.3034276253087499</v>
       </c>
       <c r="R14">
-        <v>14.016432339265</v>
+        <v>1.213710501235</v>
       </c>
       <c r="S14">
-        <v>0.007577841388223119</v>
+        <v>0.0005188122854268669</v>
       </c>
       <c r="T14">
-        <v>0.006289623040336538</v>
+        <v>0.0003330406664788897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.00397566666667</v>
+        <v>1.0325075</v>
       </c>
       <c r="H15">
-        <v>93.011927</v>
+        <v>2.065015</v>
       </c>
       <c r="I15">
-        <v>0.1977413728048684</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J15">
-        <v>0.2120713389099788</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>0.5075730000000001</v>
       </c>
       <c r="O15">
-        <v>0.08605109004269301</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P15">
-        <v>0.09989466810415577</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q15">
-        <v>5.245593647019</v>
+        <v>0.1746909764325</v>
       </c>
       <c r="R15">
-        <v>47.210342823171</v>
+        <v>1.048145858595</v>
       </c>
       <c r="S15">
-        <v>0.01701586067639746</v>
+        <v>0.000298693385726414</v>
       </c>
       <c r="T15">
-        <v>0.02118479601481627</v>
+        <v>0.0002876099324825555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.00397566666667</v>
+        <v>1.0325075</v>
       </c>
       <c r="H16">
-        <v>93.011927</v>
+        <v>2.065015</v>
       </c>
       <c r="I16">
-        <v>0.1977413728048684</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J16">
-        <v>0.2120713389099788</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03499966666666667</v>
+        <v>1.226126</v>
       </c>
       <c r="N16">
-        <v>0.104999</v>
+        <v>2.452252</v>
       </c>
       <c r="O16">
-        <v>0.01780094371330375</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P16">
-        <v>0.02066469307127891</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q16">
-        <v>1.085128813674778</v>
+        <v>1.265984290945</v>
       </c>
       <c r="R16">
-        <v>9.766159323072999</v>
+        <v>5.063937163779999</v>
       </c>
       <c r="S16">
-        <v>0.003519983047090875</v>
+        <v>0.002164628888458518</v>
       </c>
       <c r="T16">
-        <v>0.004382389127789882</v>
+        <v>0.001389538119935874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.00397566666667</v>
+        <v>1.0325075</v>
       </c>
       <c r="H17">
-        <v>93.011927</v>
+        <v>2.065015</v>
       </c>
       <c r="I17">
-        <v>0.1977413728048684</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J17">
-        <v>0.2120713389099788</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.742078</v>
+        <v>0.04388</v>
       </c>
       <c r="N17">
-        <v>1.484156</v>
+        <v>0.13164</v>
       </c>
       <c r="O17">
-        <v>0.377423271903952</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P17">
-        <v>0.2920944790892963</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q17">
-        <v>23.00736825476867</v>
+        <v>0.0453064291</v>
       </c>
       <c r="R17">
-        <v>138.044209528612</v>
+        <v>0.2718385746</v>
       </c>
       <c r="S17">
-        <v>0.07463219591479262</v>
+        <v>7.746668419522934E-05</v>
       </c>
       <c r="T17">
-        <v>0.06194486726867988</v>
+        <v>7.459217001693077E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.00397566666667</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H18">
-        <v>93.011927</v>
+        <v>718.868866</v>
       </c>
       <c r="I18">
-        <v>0.1977413728048684</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J18">
-        <v>0.2120713389099788</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3445373333333333</v>
+        <v>0.2938745</v>
       </c>
       <c r="N18">
-        <v>1.033612</v>
+        <v>0.587749</v>
       </c>
       <c r="O18">
-        <v>0.1752328025352176</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P18">
-        <v>0.2034236015084976</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q18">
-        <v>10.68202709892489</v>
+        <v>70.41907618710567</v>
       </c>
       <c r="R18">
-        <v>96.13824389032399</v>
+        <v>422.514457122634</v>
       </c>
       <c r="S18">
-        <v>0.03465077493375836</v>
+        <v>0.1204052591358675</v>
       </c>
       <c r="T18">
-        <v>0.04314031553779708</v>
+        <v>0.1159374465771743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.00397566666667</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H19">
-        <v>93.011927</v>
+        <v>718.868866</v>
       </c>
       <c r="I19">
-        <v>0.1977413728048684</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J19">
-        <v>0.2120713389099788</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,95 +1615,95 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6000156666666667</v>
+        <v>0.169191</v>
       </c>
       <c r="N19">
-        <v>1.800047</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O19">
-        <v>0.3051699095067694</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P19">
-        <v>0.3542645050798235</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q19">
-        <v>18.60287112895211</v>
+        <v>40.542047435802</v>
       </c>
       <c r="R19">
-        <v>167.425840160569</v>
+        <v>364.8784269222181</v>
       </c>
       <c r="S19">
-        <v>0.06034471684460605</v>
+        <v>0.06932036021654334</v>
       </c>
       <c r="T19">
-        <v>0.07512934792055918</v>
+        <v>0.1001221908867835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.0364265</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H20">
-        <v>4.072853</v>
+        <v>718.868866</v>
       </c>
       <c r="I20">
-        <v>0.0129881979026049</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J20">
-        <v>0.009286286358668003</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0753475</v>
+        <v>1.226126</v>
       </c>
       <c r="N20">
-        <v>0.150695</v>
+        <v>2.452252</v>
       </c>
       <c r="O20">
-        <v>0.03832198229806438</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P20">
-        <v>0.02965805314694783</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q20">
-        <v>0.15343964570875</v>
+        <v>293.8079357310387</v>
       </c>
       <c r="R20">
-        <v>0.6137585828350001</v>
+        <v>1762.847614386232</v>
       </c>
       <c r="S20">
-        <v>0.0004977334901073821</v>
+        <v>0.5023641682528587</v>
       </c>
       <c r="T20">
-        <v>0.0002754131743631523</v>
+        <v>0.4837232138953345</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.0364265</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H21">
-        <v>4.072853</v>
+        <v>718.868866</v>
       </c>
       <c r="I21">
-        <v>0.0129881979026049</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J21">
-        <v>0.009286286358668003</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.169191</v>
+        <v>0.04388</v>
       </c>
       <c r="N21">
-        <v>0.5075730000000001</v>
+        <v>0.13164</v>
       </c>
       <c r="O21">
-        <v>0.08605109004269301</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P21">
-        <v>0.09989466810415577</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q21">
-        <v>0.3445450359615</v>
+        <v>10.51465528002667</v>
       </c>
       <c r="R21">
-        <v>2.067270215769</v>
+        <v>94.63189752024</v>
       </c>
       <c r="S21">
-        <v>0.001117648587209371</v>
+        <v>0.01797836413462845</v>
       </c>
       <c r="T21">
-        <v>0.0009276504937192894</v>
+        <v>0.02596687611109374</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.0364265</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H22">
-        <v>4.072853</v>
+        <v>48.198014</v>
       </c>
       <c r="I22">
-        <v>0.0129881979026049</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J22">
-        <v>0.009286286358668003</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03499966666666667</v>
+        <v>0.2938745</v>
       </c>
       <c r="N22">
-        <v>0.104999</v>
+        <v>0.587749</v>
       </c>
       <c r="O22">
-        <v>0.01780094371330375</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P22">
-        <v>0.02066469307127891</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q22">
-        <v>0.07127424869116666</v>
+        <v>4.721389088414333</v>
       </c>
       <c r="R22">
-        <v>0.427645492147</v>
+        <v>28.328334530486</v>
       </c>
       <c r="S22">
-        <v>0.0002312021798015197</v>
+        <v>0.008072813610353478</v>
       </c>
       <c r="T22">
-        <v>0.0001918982573738786</v>
+        <v>0.007773260100056832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.0364265</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H23">
-        <v>4.072853</v>
+        <v>48.198014</v>
       </c>
       <c r="I23">
-        <v>0.0129881979026049</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J23">
-        <v>0.009286286358668003</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.742078</v>
+        <v>0.169191</v>
       </c>
       <c r="N23">
-        <v>1.484156</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O23">
-        <v>0.377423271903952</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P23">
-        <v>0.2920944790892963</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q23">
-        <v>1.511187304267</v>
+        <v>2.718223395558</v>
       </c>
       <c r="R23">
-        <v>6.044749217068</v>
+        <v>24.464010560022</v>
       </c>
       <c r="S23">
-        <v>0.00490204814853719</v>
+        <v>0.00464772345865094</v>
       </c>
       <c r="T23">
-        <v>0.002712472976609169</v>
+        <v>0.006712894362672072</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.0364265</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H24">
-        <v>4.072853</v>
+        <v>48.198014</v>
       </c>
       <c r="I24">
-        <v>0.0129881979026049</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J24">
-        <v>0.009286286358668003</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3445373333333333</v>
+        <v>1.226126</v>
       </c>
       <c r="N24">
-        <v>1.033612</v>
+        <v>2.452252</v>
       </c>
       <c r="O24">
-        <v>0.1752328025352176</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P24">
-        <v>0.2034236015084976</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q24">
-        <v>0.7016249558393334</v>
+        <v>19.69894603792133</v>
       </c>
       <c r="R24">
-        <v>4.209749735036</v>
+        <v>118.193676227528</v>
       </c>
       <c r="S24">
-        <v>0.002275958318355492</v>
+        <v>0.03368201957232856</v>
       </c>
       <c r="T24">
-        <v>0.001889049815719477</v>
+        <v>0.03243219916475327</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,796 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.0364265</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H25">
-        <v>4.072853</v>
+        <v>48.198014</v>
       </c>
       <c r="I25">
-        <v>0.0129881979026049</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J25">
-        <v>0.009286286358668003</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.6000156666666667</v>
+        <v>0.04388</v>
       </c>
       <c r="N25">
-        <v>1.800047</v>
+        <v>0.13164</v>
       </c>
       <c r="O25">
-        <v>0.3051699095067694</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P25">
-        <v>0.3542645050798235</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q25">
-        <v>1.221887804015167</v>
+        <v>0.7049762847733334</v>
       </c>
       <c r="R25">
-        <v>7.331326824091001</v>
+        <v>6.34478656296</v>
       </c>
       <c r="S25">
-        <v>0.00396360717859395</v>
+        <v>0.001205395708788312</v>
       </c>
       <c r="T25">
-        <v>0.003289801640883037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>17.571287</v>
-      </c>
-      <c r="H26">
-        <v>52.713861</v>
-      </c>
-      <c r="I26">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J26">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>0.0753475</v>
-      </c>
-      <c r="N26">
-        <v>0.150695</v>
-      </c>
-      <c r="O26">
-        <v>0.03832198229806438</v>
-      </c>
-      <c r="P26">
-        <v>0.02965805314694783</v>
-      </c>
-      <c r="Q26">
-        <v>1.3239525472325</v>
-      </c>
-      <c r="R26">
-        <v>7.943715283395</v>
-      </c>
-      <c r="S26">
-        <v>0.004294688761999744</v>
-      </c>
-      <c r="T26">
-        <v>0.003564599996844466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>17.571287</v>
-      </c>
-      <c r="H27">
-        <v>52.713861</v>
-      </c>
-      <c r="I27">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J27">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.169191</v>
-      </c>
-      <c r="N27">
-        <v>0.5075730000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.08605109004269301</v>
-      </c>
-      <c r="P27">
-        <v>0.09989466810415577</v>
-      </c>
-      <c r="Q27">
-        <v>2.972903618817</v>
-      </c>
-      <c r="R27">
-        <v>26.756132569353</v>
-      </c>
-      <c r="S27">
-        <v>0.009643620376674723</v>
-      </c>
-      <c r="T27">
-        <v>0.01200633540726856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>17.571287</v>
-      </c>
-      <c r="H28">
-        <v>52.713861</v>
-      </c>
-      <c r="I28">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J28">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.03499966666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.104999</v>
-      </c>
-      <c r="O28">
-        <v>0.01780094371330375</v>
-      </c>
-      <c r="P28">
-        <v>0.02066469307127891</v>
-      </c>
-      <c r="Q28">
-        <v>0.6149891879043333</v>
-      </c>
-      <c r="R28">
-        <v>5.534902691139</v>
-      </c>
-      <c r="S28">
-        <v>0.001994925845012381</v>
-      </c>
-      <c r="T28">
-        <v>0.002483688477180212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>17.571287</v>
-      </c>
-      <c r="H29">
-        <v>52.713861</v>
-      </c>
-      <c r="I29">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J29">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.742078</v>
-      </c>
-      <c r="N29">
-        <v>1.484156</v>
-      </c>
-      <c r="O29">
-        <v>0.377423271903952</v>
-      </c>
-      <c r="P29">
-        <v>0.2920944790892963</v>
-      </c>
-      <c r="Q29">
-        <v>13.039265514386</v>
-      </c>
-      <c r="R29">
-        <v>78.235593086316</v>
-      </c>
-      <c r="S29">
-        <v>0.04229727658020832</v>
-      </c>
-      <c r="T29">
-        <v>0.0351068215462802</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>17.571287</v>
-      </c>
-      <c r="H30">
-        <v>52.713861</v>
-      </c>
-      <c r="I30">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J30">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.3445373333333333</v>
-      </c>
-      <c r="N30">
-        <v>1.033612</v>
-      </c>
-      <c r="O30">
-        <v>0.1752328025352176</v>
-      </c>
-      <c r="P30">
-        <v>0.2034236015084976</v>
-      </c>
-      <c r="Q30">
-        <v>6.053964366214667</v>
-      </c>
-      <c r="R30">
-        <v>54.485679295932</v>
-      </c>
-      <c r="S30">
-        <v>0.01963808505333324</v>
-      </c>
-      <c r="T30">
-        <v>0.02444947298807792</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>17.571287</v>
-      </c>
-      <c r="H31">
-        <v>52.713861</v>
-      </c>
-      <c r="I31">
-        <v>0.1120685440694613</v>
-      </c>
-      <c r="J31">
-        <v>0.1201899524281925</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.6000156666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.800047</v>
-      </c>
-      <c r="O31">
-        <v>0.3051699095067694</v>
-      </c>
-      <c r="P31">
-        <v>0.3542645050798235</v>
-      </c>
-      <c r="Q31">
-        <v>10.54304748349634</v>
-      </c>
-      <c r="R31">
-        <v>94.88742735146701</v>
-      </c>
-      <c r="S31">
-        <v>0.0341999474522329</v>
-      </c>
-      <c r="T31">
-        <v>0.04257903401254116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H32">
-        <v>164.044102</v>
-      </c>
-      <c r="I32">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J32">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.0753475</v>
-      </c>
-      <c r="N32">
-        <v>0.150695</v>
-      </c>
-      <c r="O32">
-        <v>0.03832198229806438</v>
-      </c>
-      <c r="P32">
-        <v>0.02965805314694783</v>
-      </c>
-      <c r="Q32">
-        <v>4.120104325148333</v>
-      </c>
-      <c r="R32">
-        <v>24.72062595089</v>
-      </c>
-      <c r="S32">
-        <v>0.01336495464317705</v>
-      </c>
-      <c r="T32">
-        <v>0.01109293825909571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H33">
-        <v>164.044102</v>
-      </c>
-      <c r="I33">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J33">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.169191</v>
-      </c>
-      <c r="N33">
-        <v>0.5075730000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.08605109004269301</v>
-      </c>
-      <c r="P33">
-        <v>0.09989466810415577</v>
-      </c>
-      <c r="Q33">
-        <v>9.251595220494</v>
-      </c>
-      <c r="R33">
-        <v>83.264356984446</v>
-      </c>
-      <c r="S33">
-        <v>0.03001068437617397</v>
-      </c>
-      <c r="T33">
-        <v>0.03736338930279031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H34">
-        <v>164.044102</v>
-      </c>
-      <c r="I34">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J34">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.03499966666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.104999</v>
-      </c>
-      <c r="O34">
-        <v>0.01780094371330375</v>
-      </c>
-      <c r="P34">
-        <v>0.02066469307127891</v>
-      </c>
-      <c r="Q34">
-        <v>1.913829629544222</v>
-      </c>
-      <c r="R34">
-        <v>17.224466665898</v>
-      </c>
-      <c r="S34">
-        <v>0.006208154982266374</v>
-      </c>
-      <c r="T34">
-        <v>0.007729171002798966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H35">
-        <v>164.044102</v>
-      </c>
-      <c r="I35">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J35">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.742078</v>
-      </c>
-      <c r="N35">
-        <v>1.484156</v>
-      </c>
-      <c r="O35">
-        <v>0.377423271903952</v>
-      </c>
-      <c r="P35">
-        <v>0.2920944790892963</v>
-      </c>
-      <c r="Q35">
-        <v>40.57783970798533</v>
-      </c>
-      <c r="R35">
-        <v>243.467038247912</v>
-      </c>
-      <c r="S35">
-        <v>0.1316279745406223</v>
-      </c>
-      <c r="T35">
-        <v>0.1092514740028962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H36">
-        <v>164.044102</v>
-      </c>
-      <c r="I36">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J36">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.3445373333333333</v>
-      </c>
-      <c r="N36">
-        <v>1.033612</v>
-      </c>
-      <c r="O36">
-        <v>0.1752328025352176</v>
-      </c>
-      <c r="P36">
-        <v>0.2034236015084976</v>
-      </c>
-      <c r="Q36">
-        <v>18.83977248404711</v>
-      </c>
-      <c r="R36">
-        <v>169.557952356424</v>
-      </c>
-      <c r="S36">
-        <v>0.06111318667349509</v>
-      </c>
-      <c r="T36">
-        <v>0.07608609509181083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>54.68136733333333</v>
-      </c>
-      <c r="H37">
-        <v>164.044102</v>
-      </c>
-      <c r="I37">
-        <v>0.3487542616983074</v>
-      </c>
-      <c r="J37">
-        <v>0.37402786366769</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.6000156666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.800047</v>
-      </c>
-      <c r="O37">
-        <v>0.3051699095067694</v>
-      </c>
-      <c r="P37">
-        <v>0.3542645050798235</v>
-      </c>
-      <c r="Q37">
-        <v>32.80967707475489</v>
-      </c>
-      <c r="R37">
-        <v>295.287093672794</v>
-      </c>
-      <c r="S37">
-        <v>0.1064293064825726</v>
-      </c>
-      <c r="T37">
-        <v>0.1325047960082979</v>
+        <v>0.001741001617308547</v>
       </c>
     </row>
   </sheetData>
